--- a/Fase 2/Evidencias Proyecto/Historias Usuario - Proyecto Biblioteca El pimiento.xlsx
+++ b/Fase 2/Evidencias Proyecto/Historias Usuario - Proyecto Biblioteca El pimiento.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="274">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -289,35 +289,37 @@
     <t>E3-H2</t>
   </si>
   <si>
-    <t>Gestionar catálogos</t>
+    <t>usuario</t>
   </si>
   <si>
-    <t>quiero poder organizar el catálogo de libros por categorías,
-para facilitar la búsqueda y la navegación de los usuarios.</t>
+    <t>Filtro catalogo</t>
   </si>
   <si>
-    <t>Crear categorías</t>
+    <t>Quiere ver los libros organizados utilizando filtros que me permitan ver solo libros de una categoria o genero especifico</t>
   </si>
   <si>
-    <t>Quiero crear nuevas categorías para clasificar libros</t>
+    <t>Filtro categorias</t>
   </si>
   <si>
-    <t>El administrador crea una nueva categoría</t>
+    <t>quiero ver libros pertenecientes a una categoria especifica</t>
   </si>
   <si>
-    <t>El sistema agrega la nueva categoría al catálogo</t>
+    <t>El usuario selecciona una categoria</t>
   </si>
   <si>
-    <t>Asignar libros a categorías</t>
+    <t>El sistema muestra solo los libros de la categoria elegida</t>
   </si>
   <si>
-    <t>Quiero asignar libros a categorías específicas</t>
+    <t>Filtro generos</t>
   </si>
   <si>
-    <t>El administrador selecciona libros y categorías</t>
+    <t>Quiero ver libros pertenecientes a un genero en especifico</t>
   </si>
   <si>
-    <t>El sistema asocia los libros seleccionados con la categoría asignada</t>
+    <t>El usuario selecciona un genero</t>
+  </si>
+  <si>
+    <t>El sistema muestra solo los libros del genero elegido</t>
   </si>
   <si>
     <t>E4-H1</t>
@@ -1545,7 +1547,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="28.5" hidden="1" customHeight="1">
+    <row r="4" ht="28.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
         <v>13</v>
@@ -1591,7 +1593,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" ht="32.25" hidden="1" customHeight="1">
+    <row r="5" ht="32.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1629,7 +1631,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" ht="30.0" hidden="1" customHeight="1">
+    <row r="6" ht="30.0" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -1667,7 +1669,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="14.25" hidden="1" customHeight="1">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1695,7 +1697,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="4"/>
       <c r="B8" s="11" t="s">
         <v>29</v>
@@ -1741,7 +1743,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -1779,7 +1781,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" ht="14.25" hidden="1" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1807,7 +1809,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" ht="42.0" hidden="1" customHeight="1">
+    <row r="11" ht="42.0" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="20" t="s">
         <v>39</v>
@@ -1853,7 +1855,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" ht="14.25" hidden="1" customHeight="1">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1881,7 +1883,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" ht="42.0" hidden="1" customHeight="1">
+    <row r="13" ht="42.0" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="12" t="s">
         <v>47</v>
@@ -1927,7 +1929,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" ht="42.0" hidden="1" customHeight="1">
+    <row r="14" ht="42.0" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1965,7 +1967,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" ht="14.25" hidden="1" customHeight="1">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1993,7 +1995,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" ht="14.25" hidden="1" customHeight="1">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -2021,7 +2023,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="4"/>
       <c r="B17" s="12" t="s">
         <v>58</v>
@@ -2067,7 +2069,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="4"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2105,7 +2107,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="4"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -2143,7 +2145,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" ht="31.5" hidden="1" customHeight="1">
+    <row r="20" ht="31.5" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -2181,7 +2183,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="14.25" hidden="1" customHeight="1">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -2209,7 +2211,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" ht="28.5" hidden="1" customHeight="1">
+    <row r="22" ht="28.5" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="11" t="s">
         <v>77</v>
@@ -2255,7 +2257,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="39.0" hidden="1" customHeight="1">
+    <row r="23" ht="39.0" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2293,7 +2295,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="14.25" hidden="1" customHeight="1">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -2321,34 +2323,34 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="4"/>
       <c r="B25" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F25" s="13">
         <v>1.0</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2367,7 +2369,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2377,16 +2379,16 @@
         <v>2.0</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -2405,7 +2407,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="4"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -2433,34 +2435,34 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" ht="85.5" hidden="1" customHeight="1">
+    <row r="28" ht="85.5" customHeight="1">
       <c r="A28" s="4"/>
       <c r="B28" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F28" s="28">
         <v>1.0</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J28" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="1"/>
@@ -2479,7 +2481,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" ht="14.25" hidden="1" customHeight="1">
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -2507,34 +2509,34 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" ht="54.75" hidden="1" customHeight="1">
+    <row r="30" ht="54.75" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F30" s="28">
         <v>1.0</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="1"/>
@@ -2553,7 +2555,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="4"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -2563,16 +2565,16 @@
         <v>2.0</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K31" s="8"/>
       <c r="L31" s="1"/>
@@ -2591,7 +2593,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" ht="14.25" hidden="1" customHeight="1">
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -2619,34 +2621,34 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" ht="48.75" hidden="1" customHeight="1">
+    <row r="33" ht="48.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F33" s="13">
         <v>1.0</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="1"/>
@@ -2665,7 +2667,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="4"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -2693,34 +2695,34 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="4"/>
       <c r="B35" s="11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F35" s="13">
         <v>1.0</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="1"/>
@@ -2739,7 +2741,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="4"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -2749,16 +2751,16 @@
         <v>1.0</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="1"/>
@@ -2777,7 +2779,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" ht="14.25" hidden="1" customHeight="1">
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -2805,34 +2807,34 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="4"/>
       <c r="B38" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F38" s="13">
         <v>1.0</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="1"/>
@@ -2851,7 +2853,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" ht="14.25" hidden="1" customHeight="1">
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2882,31 +2884,31 @@
     <row r="40">
       <c r="A40" s="4"/>
       <c r="B40" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F40" s="13">
         <v>1.0</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="1"/>
@@ -2935,16 +2937,16 @@
         <v>2.0</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="1"/>
@@ -3022,31 +3024,31 @@
     <row r="44" ht="42.0" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F44" s="13">
         <v>1.0</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -3075,16 +3077,16 @@
         <v>2.0</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -3113,16 +3115,16 @@
         <v>3.0</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -3172,31 +3174,31 @@
     <row r="48" ht="42.0" customHeight="1">
       <c r="A48" s="4"/>
       <c r="B48" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F48" s="13">
         <v>1.0</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3225,16 +3227,16 @@
         <v>2.0</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3263,16 +3265,16 @@
         <v>3.0</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3322,31 +3324,31 @@
     <row r="52" ht="42.0" customHeight="1">
       <c r="A52" s="4"/>
       <c r="B52" s="34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F52" s="35">
         <v>1.0</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3424,31 +3426,31 @@
     <row r="55" ht="30.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F55" s="13">
         <v>1.0</v>
       </c>
       <c r="G55" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H55" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3477,16 +3479,16 @@
         <v>2.0</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I56" s="37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J56" s="38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3515,16 +3517,16 @@
         <v>3.0</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J57" s="38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -3574,31 +3576,31 @@
     <row r="59" ht="32.25" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F59" s="13">
         <v>1.0</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I59" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K59" s="8"/>
       <c r="L59" s="1"/>
@@ -3627,16 +3629,16 @@
         <v>2.0</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H60" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I60" s="37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J60" s="38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -3665,16 +3667,16 @@
         <v>3.0</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I61" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J61" s="38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -3724,31 +3726,31 @@
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F63" s="13">
         <v>1.0</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H63" s="14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I63" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K63" s="8"/>
       <c r="L63" s="1"/>
@@ -3777,16 +3779,16 @@
         <v>2.0</v>
       </c>
       <c r="G64" s="37" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I64" s="37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J64" s="38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3815,16 +3817,16 @@
         <v>3.0</v>
       </c>
       <c r="G65" s="37" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I65" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J65" s="38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3874,31 +3876,31 @@
     <row r="67" ht="33.0" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F67" s="13">
         <v>1.0</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I67" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K67" s="8"/>
       <c r="L67" s="1"/>
@@ -3927,16 +3929,16 @@
         <v>2.0</v>
       </c>
       <c r="G68" s="37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I68" s="37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J68" s="38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3965,16 +3967,16 @@
         <v>3.0</v>
       </c>
       <c r="G69" s="37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H69" s="37" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I69" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J69" s="38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -4024,31 +4026,31 @@
     <row r="71">
       <c r="A71" s="1"/>
       <c r="B71" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F71" s="13">
         <v>1.0</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K71" s="8"/>
       <c r="L71" s="1"/>
@@ -4077,16 +4079,16 @@
         <v>2.0</v>
       </c>
       <c r="G72" s="37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H72" s="37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I72" s="37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J72" s="38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -4115,16 +4117,16 @@
         <v>3.0</v>
       </c>
       <c r="G73" s="37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H73" s="37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I73" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J73" s="38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -28785,6 +28787,48 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
@@ -28799,68 +28843,26 @@
     <mergeCell ref="C48:C50"/>
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="E48:E50"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="D63:D65"/>
     <mergeCell ref="E63:E65"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="D67:D69"/>
     <mergeCell ref="E67:E69"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.7480314960629921" footer="0.0" header="0.0" left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921"/>
@@ -28892,7 +28894,7 @@
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="40"/>
       <c r="B1" s="41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
@@ -28978,10 +28980,10 @@
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -29013,7 +29015,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D5" s="40"/>
       <c r="E5" s="40"/>
@@ -29045,7 +29047,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
@@ -29077,7 +29079,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
@@ -29109,7 +29111,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
@@ -29141,7 +29143,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -29170,10 +29172,10 @@
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="40"/>
       <c r="B10" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -29205,7 +29207,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -29237,7 +29239,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -29269,7 +29271,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
